--- a/Excel_profile_templates/Profile Template - CC Location.xlsx
+++ b/Excel_profile_templates/Profile Template - CC Location.xlsx
@@ -23,6 +23,9 @@
     <t>Mandatory</t>
   </si>
   <si>
+    <t>Card.</t>
+  </si>
+  <si>
     <t>Required</t>
   </si>
   <si>
@@ -30,9 +33,6 @@
   </si>
   <si>
     <t>Not Used</t>
-  </si>
-  <si>
-    <t>Card.</t>
   </si>
   <si>
     <t>Conformance</t>
@@ -94,7 +94,7 @@
   </si>
   <si>
     <t>Language of the resource content
-Binding (extensible): A human language. ( http://hl7.org/fhir/stu3/valueset-languages.html )</t>
+Binding (extensible): A human language. [Common Languages](http://hl7.org/fhir/stu3/valueset-languages.html)</t>
   </si>
   <si>
     <t>- text</t>
@@ -149,7 +149,7 @@
   </si>
   <si>
     <t>usual : official : temp : secondary (If known)
-Binding (required): Identifies the purpose for this identifier, if known . ( http://hl7.org/fhir/stu3/valueset-identifier-use.html )</t>
+Binding (required): Identifies the purpose for this identifier, if known. [IdentifierUse](http://hl7.org/fhir/stu3/valueset-identifier-use.html)</t>
   </si>
   <si>
     <t>- - type</t>
@@ -159,7 +159,7 @@
   </si>
   <si>
     <t>Description of identifier
-Binding (extensible): A coded type for an identifier that can be used to determine which identifier to use for a specific purpose. ( http://hl7.org/fhir/stu3/valueset-identifier-type.html )</t>
+Binding (extensible): A coded type for an identifier that can be used to determine which identifier to use for a specific purpose. [Identifier Type Codes](http://hl7.org/fhir/stu3/valueset-identifier-type.html)</t>
   </si>
   <si>
     <t>- - system</t>
@@ -169,7 +169,7 @@
   </si>
   <si>
     <t>ODS Code
-Fixed Value: https://fhir.nhs.uk/Id/ods-site-code</t>
+&lt;font color='red'&gt;The value attribute of the profile element MUST contain the value 'https://fhir.nhs.uk/Id/ods-site-code'&lt;/font&gt;</t>
   </si>
   <si>
     <t>- - value</t>
@@ -202,7 +202,7 @@
   </si>
   <si>
     <t>active : suspended : inactive
-Binding (required): Indicates whether the location is still in use. ( http://hl7.org/fhir/stu3/valueset-location-status.html )</t>
+Binding (required): Indicates whether the location is still in use. [LocationStatus](http://hl7.org/fhir/stu3/valueset-location-status.html)</t>
   </si>
   <si>
     <t>- operationalStatus</t>
@@ -212,7 +212,7 @@
   </si>
   <si>
     <t>The Operational status of the location (typically only for a bed/room)
-Binding (preferred): The operational status if the location (where typically a bed/room) (http://hl7.org/fhir/ValueSet/v2-0116 )</t>
+Binding (preferred): The operational status if the location (where typically a bed/room) [v2 Bed Status](http://hl7.org/fhir/ValueSet/v2-0116)</t>
   </si>
   <si>
     <t>Identity of the terminology system</t>
@@ -267,14 +267,14 @@
   </si>
   <si>
     <t>instance : kind
-Binding (required): Indicates whether a resource instance represents a specific location or a class of locations. ( http://hl7.org/fhir/stu3/valueset-location-mode.html )</t>
+Binding (required): Indicates whether a resource instance represents a specific location or a class of locations. [LocationMode](http://hl7.org/fhir/stu3/valueset-location-mode.html)</t>
   </si>
   <si>
     <t>- type</t>
   </si>
   <si>
     <t>Type of function performed
-Binding (extensible): Indicates the type of function performed at the location. (http://hl7.org/fhir/stu3/v3/ServiceDeliveryLocationRoleType/vs.html )</t>
+Binding (extensible): Indicates the type of function performed at the location. [ServiceDeliveryLocationRoleType](http://hl7.org/fhir/stu3/v3/ServiceDeliveryLocationRoleType/vs.html )</t>
   </si>
   <si>
     <t>- - coding</t>
@@ -315,14 +315,14 @@
   </si>
   <si>
     <t>phone : fax : email : pager : url : sms : other
-Binding (required): Telecommunications form for contact point ( http://hl7.org/fhir/stu3/valueset-contact-point-system.html )</t>
+Binding (required): Telecommunications form for contact point [ContactPointSystem](http://hl7.org/fhir/stu3/valueset-contact-point-system.html)</t>
   </si>
   <si>
     <t>The actual contact point details</t>
   </si>
   <si>
     <t>home : work : temp : old : mobile - purpose of this contact point
-Binding (required): Use of contact point ( http://hl7.org/fhir/stu3/valueset-contact-point-use.html )</t>
+Binding (required): Use of contact point [ContactPointUse](http://hl7.org/fhir/stu3/valueset-contact-point-use.html)</t>
   </si>
   <si>
     <t>- - rank</t>
@@ -363,11 +363,11 @@
   </si>
   <si>
     <t>home : work : temp : old - purpose of this address
-Binding (required): The use of an address ( http://hl7.org/fhir/stu3/valueset-address-use.html )</t>
+Binding (required): The use of an address [AddressUse](http://hl7.org/fhir/stu3/valueset-address-use.html)</t>
   </si>
   <si>
     <t>postal : physical : both
-Binding (required): The type of an address (physical / postal) ( http://hl7.org/fhir/stu3/valueset-address-type.html )</t>
+Binding (required): The type of an address (physical / postal) [AddressType](http://hl7.org/fhir/stu3/valueset-address-type.html)</t>
   </si>
   <si>
     <t>Text representation of the address</t>
@@ -417,7 +417,7 @@
   </si>
   <si>
     <t>Physical form of the location
-Binding (example): Physical form of the location ( http://hl7.org/fhir/stu3/valueset-location-physical-type.html )</t>
+Binding (example): Physical form of the location [LocationType](http://hl7.org/fhir/stu3/valueset-location-physical-type.html)</t>
   </si>
   <si>
     <t>- position</t>
@@ -540,10 +540,9 @@
     </font>
     <font>
       <b/>
-      <u/>
       <sz val="8.0"/>
       <color rgb="FF474747"/>
-      <name val="&quot;Helvetica Neue&quot;"/>
+      <name val="Helvetica Neue"/>
     </font>
     <font>
       <u/>
@@ -613,7 +612,7 @@
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
@@ -667,7 +666,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>7</v>
@@ -756,7 +755,7 @@
       <c r="D6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="8" t="s">
         <v>25</v>
       </c>
     </row>
@@ -858,7 +857,7 @@
       <c r="D12" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="11" t="s">
         <v>42</v>
       </c>
     </row>
@@ -990,7 +989,7 @@
       <c r="D20" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="8" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1160,7 +1159,7 @@
       <c r="D30" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="E30" s="8" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1449,7 +1448,7 @@
       <c r="D47" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E47" s="8" t="s">
+      <c r="E47" s="11" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1466,7 +1465,7 @@
       <c r="D48" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E48" s="8" t="s">
+      <c r="E48" s="11" t="s">
         <v>110</v>
       </c>
     </row>
@@ -1653,7 +1652,7 @@
       <c r="D59" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E59" s="11" t="s">
+      <c r="E59" s="8" t="s">
         <v>126</v>
       </c>
     </row>
@@ -4875,85 +4874,80 @@
     <hyperlink r:id="rId3" location="Meta" ref="D4"/>
     <hyperlink r:id="rId4" location="uri" ref="D5"/>
     <hyperlink r:id="rId5" location="code" ref="D6"/>
-    <hyperlink r:id="rId6" ref="E6"/>
-    <hyperlink r:id="rId7" location="Narrative" ref="D7"/>
-    <hyperlink r:id="rId8" ref="D8"/>
-    <hyperlink r:id="rId9" location="Extension" ref="D9"/>
-    <hyperlink r:id="rId10" location="identifier" ref="D10"/>
-    <hyperlink r:id="rId11" location="identifier" ref="D11"/>
-    <hyperlink r:id="rId12" location="code" ref="D12"/>
-    <hyperlink r:id="rId13" location="codeableconcept" ref="D13"/>
-    <hyperlink r:id="rId14" ref="E13"/>
-    <hyperlink r:id="rId15" location="uri" ref="D14"/>
-    <hyperlink r:id="rId16" location="string" ref="D15"/>
-    <hyperlink r:id="rId17" location="period" ref="D16"/>
-    <hyperlink r:id="rId18" location="code" ref="D19"/>
-    <hyperlink r:id="rId19" location="coding" ref="D20"/>
-    <hyperlink r:id="rId20" ref="E20"/>
-    <hyperlink r:id="rId21" location="uri" ref="D21"/>
-    <hyperlink r:id="rId22" location="string" ref="D22"/>
-    <hyperlink r:id="rId23" location="code" ref="D23"/>
-    <hyperlink r:id="rId24" location="string" ref="D24"/>
-    <hyperlink r:id="rId25" location="boolean" ref="D25"/>
-    <hyperlink r:id="rId26" location="string" ref="D26"/>
-    <hyperlink r:id="rId27" location="string" ref="D27"/>
-    <hyperlink r:id="rId28" location="string" ref="D28"/>
-    <hyperlink r:id="rId29" location="code" ref="D29"/>
-    <hyperlink r:id="rId30" location="codeableconcept" ref="D30"/>
-    <hyperlink r:id="rId31" ref="E30"/>
-    <hyperlink r:id="rId32" location="coding" ref="D31"/>
-    <hyperlink r:id="rId33" location="uri" ref="D32"/>
-    <hyperlink r:id="rId34" location="string" ref="D33"/>
-    <hyperlink r:id="rId35" location="code" ref="D34"/>
-    <hyperlink r:id="rId36" location="string" ref="D35"/>
-    <hyperlink r:id="rId37" location="boolean" ref="D36"/>
-    <hyperlink r:id="rId38" location="string" ref="D37"/>
-    <hyperlink r:id="rId39" location="contactpoint" ref="D38"/>
-    <hyperlink r:id="rId40" location="code" ref="D39"/>
-    <hyperlink r:id="rId41" location="string" ref="D40"/>
-    <hyperlink r:id="rId42" location="code" ref="D41"/>
-    <hyperlink r:id="rId43" location="positiveint" ref="D42"/>
-    <hyperlink r:id="rId44" location="period" ref="D43"/>
-    <hyperlink r:id="rId45" location="datetime" ref="D44"/>
-    <hyperlink r:id="rId46" location="datetime" ref="D45"/>
-    <hyperlink r:id="rId47" location="address" ref="D46"/>
-    <hyperlink r:id="rId48" location="code" ref="D47"/>
-    <hyperlink r:id="rId49" location="code" ref="D48"/>
-    <hyperlink r:id="rId50" location="string" ref="D49"/>
-    <hyperlink r:id="rId51" location="string" ref="D50"/>
-    <hyperlink r:id="rId52" location="string" ref="D51"/>
-    <hyperlink r:id="rId53" location="string" ref="D52"/>
-    <hyperlink r:id="rId54" location="string" ref="D53"/>
-    <hyperlink r:id="rId55" location="string" ref="D54"/>
-    <hyperlink r:id="rId56" location="string" ref="D55"/>
-    <hyperlink r:id="rId57" location="period" ref="D56"/>
-    <hyperlink r:id="rId58" location="datetime" ref="D57"/>
-    <hyperlink r:id="rId59" location="datetime" ref="D58"/>
-    <hyperlink r:id="rId60" location="codeableconcept" ref="D59"/>
-    <hyperlink r:id="rId61" ref="E59"/>
-    <hyperlink r:id="rId62" location="coding" ref="D60"/>
-    <hyperlink r:id="rId63" location="uri" ref="D61"/>
-    <hyperlink r:id="rId64" location="string" ref="D62"/>
-    <hyperlink r:id="rId65" location="code" ref="D63"/>
-    <hyperlink r:id="rId66" location="string" ref="D64"/>
-    <hyperlink r:id="rId67" location="boolean" ref="D65"/>
-    <hyperlink r:id="rId68" location="string" ref="D66"/>
-    <hyperlink r:id="rId69" ref="D67"/>
-    <hyperlink r:id="rId70" location="Extension" ref="D68"/>
-    <hyperlink r:id="rId71" location="decimal" ref="D69"/>
-    <hyperlink r:id="rId72" location="decimal" ref="D70"/>
-    <hyperlink r:id="rId73" location="decimal" ref="D71"/>
-    <hyperlink r:id="rId74" location="string" ref="D74"/>
-    <hyperlink r:id="rId75" location="identifier" ref="D75"/>
-    <hyperlink r:id="rId76" location="string" ref="D76"/>
-    <hyperlink r:id="rId77" location="string" ref="D79"/>
-    <hyperlink r:id="rId78" location="identifier" ref="D80"/>
-    <hyperlink r:id="rId79" location="string" ref="D81"/>
-    <hyperlink r:id="rId80" location="string" ref="D84"/>
-    <hyperlink r:id="rId81" location="identifier" ref="D85"/>
-    <hyperlink r:id="rId82" location="string" ref="D86"/>
+    <hyperlink r:id="rId6" location="Narrative" ref="D7"/>
+    <hyperlink r:id="rId7" ref="D8"/>
+    <hyperlink r:id="rId8" location="Extension" ref="D9"/>
+    <hyperlink r:id="rId9" location="identifier" ref="D10"/>
+    <hyperlink r:id="rId10" location="identifier" ref="D11"/>
+    <hyperlink r:id="rId11" location="code" ref="D12"/>
+    <hyperlink r:id="rId12" location="codeableconcept" ref="D13"/>
+    <hyperlink r:id="rId13" location="uri" ref="D14"/>
+    <hyperlink r:id="rId14" location="string" ref="D15"/>
+    <hyperlink r:id="rId15" location="period" ref="D16"/>
+    <hyperlink r:id="rId16" location="code" ref="D19"/>
+    <hyperlink r:id="rId17" location="coding" ref="D20"/>
+    <hyperlink r:id="rId18" location="uri" ref="D21"/>
+    <hyperlink r:id="rId19" location="string" ref="D22"/>
+    <hyperlink r:id="rId20" location="code" ref="D23"/>
+    <hyperlink r:id="rId21" location="string" ref="D24"/>
+    <hyperlink r:id="rId22" location="boolean" ref="D25"/>
+    <hyperlink r:id="rId23" location="string" ref="D26"/>
+    <hyperlink r:id="rId24" location="string" ref="D27"/>
+    <hyperlink r:id="rId25" location="string" ref="D28"/>
+    <hyperlink r:id="rId26" location="code" ref="D29"/>
+    <hyperlink r:id="rId27" location="codeableconcept" ref="D30"/>
+    <hyperlink r:id="rId28" location="coding" ref="D31"/>
+    <hyperlink r:id="rId29" location="uri" ref="D32"/>
+    <hyperlink r:id="rId30" location="string" ref="D33"/>
+    <hyperlink r:id="rId31" location="code" ref="D34"/>
+    <hyperlink r:id="rId32" location="string" ref="D35"/>
+    <hyperlink r:id="rId33" location="boolean" ref="D36"/>
+    <hyperlink r:id="rId34" location="string" ref="D37"/>
+    <hyperlink r:id="rId35" location="contactpoint" ref="D38"/>
+    <hyperlink r:id="rId36" location="code" ref="D39"/>
+    <hyperlink r:id="rId37" location="string" ref="D40"/>
+    <hyperlink r:id="rId38" location="code" ref="D41"/>
+    <hyperlink r:id="rId39" location="positiveint" ref="D42"/>
+    <hyperlink r:id="rId40" location="period" ref="D43"/>
+    <hyperlink r:id="rId41" location="datetime" ref="D44"/>
+    <hyperlink r:id="rId42" location="datetime" ref="D45"/>
+    <hyperlink r:id="rId43" location="address" ref="D46"/>
+    <hyperlink r:id="rId44" location="code" ref="D47"/>
+    <hyperlink r:id="rId45" location="code" ref="D48"/>
+    <hyperlink r:id="rId46" location="string" ref="D49"/>
+    <hyperlink r:id="rId47" location="string" ref="D50"/>
+    <hyperlink r:id="rId48" location="string" ref="D51"/>
+    <hyperlink r:id="rId49" location="string" ref="D52"/>
+    <hyperlink r:id="rId50" location="string" ref="D53"/>
+    <hyperlink r:id="rId51" location="string" ref="D54"/>
+    <hyperlink r:id="rId52" location="string" ref="D55"/>
+    <hyperlink r:id="rId53" location="period" ref="D56"/>
+    <hyperlink r:id="rId54" location="datetime" ref="D57"/>
+    <hyperlink r:id="rId55" location="datetime" ref="D58"/>
+    <hyperlink r:id="rId56" location="codeableconcept" ref="D59"/>
+    <hyperlink r:id="rId57" location="coding" ref="D60"/>
+    <hyperlink r:id="rId58" location="uri" ref="D61"/>
+    <hyperlink r:id="rId59" location="string" ref="D62"/>
+    <hyperlink r:id="rId60" location="code" ref="D63"/>
+    <hyperlink r:id="rId61" location="string" ref="D64"/>
+    <hyperlink r:id="rId62" location="boolean" ref="D65"/>
+    <hyperlink r:id="rId63" location="string" ref="D66"/>
+    <hyperlink r:id="rId64" ref="D67"/>
+    <hyperlink r:id="rId65" location="Extension" ref="D68"/>
+    <hyperlink r:id="rId66" location="decimal" ref="D69"/>
+    <hyperlink r:id="rId67" location="decimal" ref="D70"/>
+    <hyperlink r:id="rId68" location="decimal" ref="D71"/>
+    <hyperlink r:id="rId69" location="string" ref="D74"/>
+    <hyperlink r:id="rId70" location="identifier" ref="D75"/>
+    <hyperlink r:id="rId71" location="string" ref="D76"/>
+    <hyperlink r:id="rId72" location="string" ref="D79"/>
+    <hyperlink r:id="rId73" location="identifier" ref="D80"/>
+    <hyperlink r:id="rId74" location="string" ref="D81"/>
+    <hyperlink r:id="rId75" location="string" ref="D84"/>
+    <hyperlink r:id="rId76" location="identifier" ref="D85"/>
+    <hyperlink r:id="rId77" location="string" ref="D86"/>
   </hyperlinks>
-  <drawing r:id="rId83"/>
+  <drawing r:id="rId78"/>
 </worksheet>
 </file>
 
@@ -4979,17 +4973,17 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
